--- a/Income/CLX_inc.xlsx
+++ b/Income/CLX_inc.xlsx
@@ -2107,10 +2107,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.4606</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.4682</v>
@@ -2236,10 +2234,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1571</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2055</v>
@@ -2365,10 +2361,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.1587</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.206</v>
@@ -2494,10 +2488,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.1227</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.1628</v>
@@ -2623,10 +2615,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.1838</v>
@@ -2752,10 +2742,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>1720000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1747000000.0</v>
@@ -4160,10 +4148,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2322</v>
@@ -4289,10 +4275,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.2229</v>
